--- a/olympics.xlsx
+++ b/olympics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliajones/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliajones/Desktop/olympics_covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC4E18B-E8BF-3D4A-A132-E1747D30F618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D1DD73-0310-6F45-B5AE-FAF9151A05CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8560" yWindow="500" windowWidth="20240" windowHeight="16360" xr2:uid="{967CFCA4-4CE2-D346-95F0-716D1DA2A879}"/>
+    <workbookView xWindow="8560" yWindow="500" windowWidth="20240" windowHeight="16360" xr2:uid="{967CFCA4-4CE2-D346-95F0-716D1DA2A879}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>Bryson DeChambeau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US </t>
   </si>
   <si>
     <t>golf</t>
@@ -697,7 +694,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,7 +737,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -751,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
@@ -768,7 +765,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>44</v>
@@ -785,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>44</v>
@@ -802,7 +799,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>44</v>
@@ -867,7 +864,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1074,7 +1071,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1242,10 +1239,10 @@
         <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -1256,13 +1253,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -1271,18 +1268,18 @@
         <v>20</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>11</v>
@@ -1293,10 +1290,10 @@
     </row>
     <row r="35" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>12</v>
@@ -1310,7 +1307,7 @@
     </row>
     <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>24</v>
@@ -1327,13 +1324,13 @@
     </row>
     <row r="37" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>11</v>
@@ -1342,18 +1339,18 @@
         <v>20</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>44</v>
@@ -1364,13 +1361,13 @@
     </row>
     <row r="39" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>11</v>
@@ -1379,18 +1376,18 @@
         <v>20</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>11</v>
@@ -1399,18 +1396,18 @@
         <v>20</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="C41" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>44</v>
@@ -1421,13 +1418,13 @@
     </row>
     <row r="42" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>44</v>
@@ -1438,10 +1435,10 @@
     </row>
     <row r="43" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>43</v>
@@ -1455,13 +1452,13 @@
     </row>
     <row r="44" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="C44" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>11</v>
@@ -1472,7 +1469,7 @@
     </row>
     <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>24</v>
@@ -1489,10 +1486,10 @@
     </row>
     <row r="46" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>12</v>
@@ -1506,13 +1503,13 @@
     </row>
     <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>44</v>
@@ -1523,13 +1520,13 @@
     </row>
     <row r="48" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>44</v>
@@ -1540,13 +1537,13 @@
     </row>
     <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>44</v>

--- a/olympics.xlsx
+++ b/olympics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliajones/Desktop/olympics_covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D1DD73-0310-6F45-B5AE-FAF9151A05CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF915D9-BAF4-754A-AD6B-5CC6BEA1A334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8560" yWindow="500" windowWidth="20240" windowHeight="16360" xr2:uid="{967CFCA4-4CE2-D346-95F0-716D1DA2A879}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -313,13 +313,55 @@
   </si>
   <si>
     <t>artistic-swimming</t>
+  </si>
+  <si>
+    <t>if positive after event doesn’t count</t>
+  </si>
+  <si>
+    <t>Jelle Geens</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/world/asia-pacific/coronavirus-incidents-tokyo-olympics-2021-07-15/</t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2021/07/21/sport/olympic-athletes-coronavirus-withdraw/index.html</t>
+  </si>
+  <si>
+    <t>https://www.today.com/news/all-olympic-athletes-who-have-tested-positive-covid-19-t226139</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>triathalon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what counts as a positive: tested positive during games and missed event or tested positive before games resulting in a failure to compete. Positives after the athlete has finished competing don’t count and athletes who were forced to quarantine due to close contact and consistently tested negative don’t count. </t>
+  </si>
+  <si>
+    <t>https://www.rfi.fr/fr/sports/20210719-tokyo-2021-positif-au-covid-19-le-cycliste-alg%C3%A9rien-youcef-reguigui-n-ira-pas-au-japon</t>
+  </si>
+  <si>
+    <t>https://www.insidethegames.biz/articles/1111197/walid-bidani-coronavirus</t>
+  </si>
+  <si>
+    <t>https://apnews.com/article/2020-tokyo-olympics-sports-europe-health-coronavirus-pandemic-249b12532de7ab3a2c2969e49c1c4bd6</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/lifestyle/sports/rowing-italian-rower-misses-medal-winning-race-after-positive-covid-test-2021-07-28/</t>
+  </si>
+  <si>
+    <t>https://www.forbes.com/sites/roberthart/2021/08/03/greeces-artistic-swimming-team-latest-athletes-to-pull-out-of-tokyo-olympics-due-to-covid---heres-the-full-list/?sh=422fa7f83140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">also vrate origin stat </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -341,8 +383,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +402,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,15 +466,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBC047A-A0F4-F946-A32E-0EB976BEBA9A}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,838 +829,914 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="E15" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="D16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="D26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="D27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="E28" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="E29" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="D30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="D34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="D35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="D36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="D37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="E38" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="D39" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="D43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:6" s="7" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="D44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="E45" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="6" t="s">
+      <c r="D46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="E47" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="E48" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
+      <c r="E49" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E29">
     <sortCondition ref="B2:B29"/>
